--- a/resources/data/data0.xlsx
+++ b/resources/data/data0.xlsx
@@ -29,7 +29,7 @@
     <t>Lead Time</t>
   </si>
   <si>
-    <t>Story Finish Date</t>
+    <t>Story完成时间</t>
   </si>
   <si>
     <t>Story7</t>
@@ -348,8 +348,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -361,6 +361,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,7 +412,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,43 +436,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +453,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,50 +491,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,181 +519,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,18 +734,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -766,11 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,17 +800,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,133 +839,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2759,7 +2759,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D101">
-    <sortState ref="A2:D101">
+    <sortState ref="A1:D101">
       <sortCondition ref="C1"/>
     </sortState>
     <extLst/>

--- a/resources/data/data0.xlsx
+++ b/resources/data/data0.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10464"/>
+    <workbookView windowWidth="22943" windowHeight="10871"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>Story</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Story开始时间</t>
   </si>
   <si>
     <t>Story完成时间</t>
@@ -346,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -361,17 +364,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,15 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +424,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,9 +446,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,22 +479,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +506,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,7 +522,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +594,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,19 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,103 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,13 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,8 +728,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,6 +788,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,20 +816,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,133 +842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,20 +1333,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="19.0555555555556" customWidth="1"/>
+    <col min="3" max="4" width="15.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.0555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,1410 +1359,1713 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>5.7434</v>
       </c>
       <c r="D2" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E2" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>6.1409</v>
       </c>
       <c r="D3" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E3" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>6.3463</v>
       </c>
       <c r="D4" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E4" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>6.4747</v>
       </c>
       <c r="D5" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E5" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>7.085</v>
       </c>
       <c r="D6" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E6" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>7.1933</v>
       </c>
       <c r="D7" s="3">
+        <v>42856</v>
+      </c>
+      <c r="E7" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>7.4356</v>
       </c>
       <c r="D8" s="3">
+        <v>42862</v>
+      </c>
+      <c r="E8" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>7.5904</v>
       </c>
       <c r="D9" s="3">
+        <v>42863</v>
+      </c>
+      <c r="E9" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>7.8827</v>
       </c>
       <c r="D10" s="3">
+        <v>42864</v>
+      </c>
+      <c r="E10" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>7.9655</v>
       </c>
       <c r="D11" s="3">
+        <v>42865</v>
+      </c>
+      <c r="E11" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>8.0672</v>
       </c>
       <c r="D12" s="3">
+        <v>42866</v>
+      </c>
+      <c r="E12" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>8.2682</v>
       </c>
       <c r="D13" s="3">
+        <v>42867</v>
+      </c>
+      <c r="E13" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>8.283</v>
       </c>
       <c r="D14" s="3">
+        <v>42868</v>
+      </c>
+      <c r="E14" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>8.2847</v>
       </c>
       <c r="D15" s="3">
+        <v>42869</v>
+      </c>
+      <c r="E15" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2">
         <v>8.4082</v>
       </c>
       <c r="D16" s="3">
+        <v>42870</v>
+      </c>
+      <c r="E16" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>8.4678</v>
       </c>
       <c r="D17" s="3">
+        <v>42871</v>
+      </c>
+      <c r="E17" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>8.4686</v>
       </c>
       <c r="D18" s="3">
+        <v>42872</v>
+      </c>
+      <c r="E18" s="3">
         <v>43160</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>8.5281</v>
       </c>
       <c r="D19" s="3">
+        <v>42873</v>
+      </c>
+      <c r="E19" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>8.751</v>
       </c>
       <c r="D20" s="3">
+        <v>42874</v>
+      </c>
+      <c r="E20" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
         <v>8.8409</v>
       </c>
       <c r="D21" s="3">
+        <v>42875</v>
+      </c>
+      <c r="E21" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>8.8465</v>
       </c>
       <c r="D22" s="3">
+        <v>42876</v>
+      </c>
+      <c r="E22" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <v>8.8576</v>
       </c>
       <c r="D23" s="3">
+        <v>42877</v>
+      </c>
+      <c r="E23" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <v>8.936</v>
       </c>
       <c r="D24" s="3">
+        <v>42878</v>
+      </c>
+      <c r="E24" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>8.9371</v>
       </c>
       <c r="D25" s="3">
+        <v>42879</v>
+      </c>
+      <c r="E25" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2">
         <v>8.9997</v>
       </c>
       <c r="D26" s="3">
+        <v>42880</v>
+      </c>
+      <c r="E26" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <v>9.028</v>
       </c>
       <c r="D27" s="3">
+        <v>42881</v>
+      </c>
+      <c r="E27" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
         <v>9.038</v>
       </c>
       <c r="D28" s="3">
+        <v>42882</v>
+      </c>
+      <c r="E28" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>9.0493</v>
       </c>
       <c r="D29" s="3">
+        <v>42883</v>
+      </c>
+      <c r="E29" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <v>9.2116</v>
       </c>
       <c r="D30" s="3">
+        <v>42884</v>
+      </c>
+      <c r="E30" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
         <v>9.2878</v>
       </c>
       <c r="D31" s="3">
+        <v>42885</v>
+      </c>
+      <c r="E31" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>9.2998</v>
       </c>
       <c r="D32" s="3">
+        <v>42886</v>
+      </c>
+      <c r="E32" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <v>9.3511</v>
       </c>
       <c r="D33" s="3">
+        <v>42887</v>
+      </c>
+      <c r="E33" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
         <v>9.3723</v>
       </c>
       <c r="D34" s="3">
+        <v>42888</v>
+      </c>
+      <c r="E34" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>9.4535</v>
       </c>
       <c r="D35" s="3">
+        <v>42889</v>
+      </c>
+      <c r="E35" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>9.4676</v>
       </c>
       <c r="D36" s="3">
+        <v>42890</v>
+      </c>
+      <c r="E36" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>9.5739</v>
       </c>
       <c r="D37" s="3">
+        <v>42891</v>
+      </c>
+      <c r="E37" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
         <v>9.6959</v>
       </c>
       <c r="D38" s="3">
+        <v>42892</v>
+      </c>
+      <c r="E38" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
         <v>9.6978</v>
       </c>
       <c r="D39" s="3">
+        <v>42893</v>
+      </c>
+      <c r="E39" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
         <v>9.6997</v>
       </c>
       <c r="D40" s="3">
+        <v>42894</v>
+      </c>
+      <c r="E40" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
         <v>9.7347</v>
       </c>
       <c r="D41" s="3">
+        <v>42895</v>
+      </c>
+      <c r="E41" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2">
         <v>9.7359</v>
       </c>
       <c r="D42" s="3">
+        <v>42896</v>
+      </c>
+      <c r="E42" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2">
         <v>9.8443</v>
       </c>
       <c r="D43" s="3">
+        <v>42897</v>
+      </c>
+      <c r="E43" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
         <v>9.8954</v>
       </c>
       <c r="D44" s="3">
+        <v>42898</v>
+      </c>
+      <c r="E44" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2">
         <v>9.9504</v>
       </c>
       <c r="D45" s="3">
+        <v>42899</v>
+      </c>
+      <c r="E45" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2">
         <v>9.9995</v>
       </c>
       <c r="D46" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E46" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="2">
         <v>10.1048</v>
       </c>
       <c r="D47" s="3">
+        <v>42901</v>
+      </c>
+      <c r="E47" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
         <v>10.1567</v>
       </c>
       <c r="D48" s="3">
+        <v>42902</v>
+      </c>
+      <c r="E48" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
         <v>10.1595</v>
       </c>
       <c r="D49" s="3">
+        <v>42903</v>
+      </c>
+      <c r="E49" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
         <v>10.3017</v>
       </c>
       <c r="D50" s="3">
+        <v>42904</v>
+      </c>
+      <c r="E50" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2">
         <v>10.4288</v>
       </c>
       <c r="D51" s="3">
+        <v>42905</v>
+      </c>
+      <c r="E51" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2">
         <v>10.4543</v>
       </c>
       <c r="D52" s="3">
+        <v>42906</v>
+      </c>
+      <c r="E52" s="3">
         <v>43162</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2">
         <v>10.4851</v>
       </c>
       <c r="D53" s="3">
+        <v>42907</v>
+      </c>
+      <c r="E53" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2">
         <v>10.5163</v>
       </c>
       <c r="D54" s="3">
+        <v>42908</v>
+      </c>
+      <c r="E54" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2">
         <v>10.5381</v>
       </c>
       <c r="D55" s="3">
+        <v>42909</v>
+      </c>
+      <c r="E55" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="2">
         <v>10.5492</v>
       </c>
       <c r="D56" s="3">
+        <v>42910</v>
+      </c>
+      <c r="E56" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="2">
         <v>10.5661</v>
       </c>
       <c r="D57" s="3">
+        <v>42911</v>
+      </c>
+      <c r="E57" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2">
         <v>10.6775</v>
       </c>
       <c r="D58" s="3">
+        <v>42912</v>
+      </c>
+      <c r="E58" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="2">
         <v>10.6968</v>
       </c>
       <c r="D59" s="3">
+        <v>42913</v>
+      </c>
+      <c r="E59" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="2">
         <v>10.7237</v>
       </c>
       <c r="D60" s="3">
+        <v>42914</v>
+      </c>
+      <c r="E60" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
         <v>10.8089</v>
       </c>
       <c r="D61" s="3">
+        <v>42915</v>
+      </c>
+      <c r="E61" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2">
         <v>10.8718</v>
       </c>
       <c r="D62" s="3">
+        <v>42916</v>
+      </c>
+      <c r="E62" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2">
         <v>10.8734</v>
       </c>
       <c r="D63" s="3">
+        <v>42917</v>
+      </c>
+      <c r="E63" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2">
         <v>10.8784</v>
       </c>
       <c r="D64" s="3">
+        <v>42918</v>
+      </c>
+      <c r="E64" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="2">
         <v>10.8827</v>
       </c>
       <c r="D65" s="3">
+        <v>42919</v>
+      </c>
+      <c r="E65" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2">
         <v>10.9042</v>
       </c>
       <c r="D66" s="3">
+        <v>42920</v>
+      </c>
+      <c r="E66" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2">
         <v>10.9667</v>
       </c>
       <c r="D67" s="3">
+        <v>42921</v>
+      </c>
+      <c r="E67" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="2">
         <v>11.0685</v>
       </c>
       <c r="D68" s="3">
+        <v>42922</v>
+      </c>
+      <c r="E68" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2">
         <v>11.1303</v>
       </c>
       <c r="D69" s="3">
+        <v>42923</v>
+      </c>
+      <c r="E69" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2">
         <v>11.1942</v>
       </c>
       <c r="D70" s="3">
+        <v>42924</v>
+      </c>
+      <c r="E70" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="2">
         <v>11.2548</v>
       </c>
       <c r="D71" s="3">
+        <v>42925</v>
+      </c>
+      <c r="E71" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2">
         <v>11.3035</v>
       </c>
       <c r="D72" s="3">
+        <v>42926</v>
+      </c>
+      <c r="E72" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2">
         <v>11.3749</v>
       </c>
       <c r="D73" s="3">
+        <v>42927</v>
+      </c>
+      <c r="E73" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2">
         <v>11.3929</v>
       </c>
       <c r="D74" s="3">
+        <v>42928</v>
+      </c>
+      <c r="E74" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2">
         <v>11.4913</v>
       </c>
       <c r="D75" s="3">
+        <v>42929</v>
+      </c>
+      <c r="E75" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2">
         <v>11.584</v>
       </c>
       <c r="D76" s="3">
+        <v>42930</v>
+      </c>
+      <c r="E76" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2">
         <v>11.6018</v>
       </c>
       <c r="D77" s="3">
+        <v>42931</v>
+      </c>
+      <c r="E77" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="2">
         <v>11.6312</v>
       </c>
       <c r="D78" s="3">
+        <v>42932</v>
+      </c>
+      <c r="E78" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2">
         <v>11.7189</v>
       </c>
       <c r="D79" s="3">
+        <v>42933</v>
+      </c>
+      <c r="E79" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2">
         <v>11.7299</v>
       </c>
       <c r="D80" s="3">
+        <v>42934</v>
+      </c>
+      <c r="E80" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" s="2">
         <v>11.7603</v>
       </c>
       <c r="D81" s="3">
+        <v>42935</v>
+      </c>
+      <c r="E81" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2">
         <v>11.8673</v>
       </c>
       <c r="D82" s="3">
+        <v>42936</v>
+      </c>
+      <c r="E82" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" s="2">
         <v>11.9596</v>
       </c>
       <c r="D83" s="3">
+        <v>42937</v>
+      </c>
+      <c r="E83" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2">
         <v>11.993</v>
       </c>
       <c r="D84" s="3">
+        <v>42938</v>
+      </c>
+      <c r="E84" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" s="2">
         <v>12.137</v>
       </c>
       <c r="D85" s="3">
+        <v>42939</v>
+      </c>
+      <c r="E85" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" s="2">
         <v>12.1397</v>
       </c>
       <c r="D86" s="3">
+        <v>42940</v>
+      </c>
+      <c r="E86" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2">
         <v>12.1985</v>
       </c>
       <c r="D87" s="3">
+        <v>42941</v>
+      </c>
+      <c r="E87" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="2">
         <v>12.269</v>
       </c>
       <c r="D88" s="3">
+        <v>42942</v>
+      </c>
+      <c r="E88" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2">
         <v>12.3102</v>
       </c>
       <c r="D89" s="3">
+        <v>42943</v>
+      </c>
+      <c r="E89" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2">
         <v>12.3256</v>
       </c>
       <c r="D90" s="3">
+        <v>42944</v>
+      </c>
+      <c r="E90" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2">
         <v>12.7539</v>
       </c>
       <c r="D91" s="3">
+        <v>42945</v>
+      </c>
+      <c r="E91" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="2">
         <v>12.9512</v>
       </c>
       <c r="D92" s="3">
+        <v>42946</v>
+      </c>
+      <c r="E92" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" s="2">
         <v>13.1013</v>
       </c>
       <c r="D93" s="3">
+        <v>42947</v>
+      </c>
+      <c r="E93" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2">
         <v>13.3763</v>
       </c>
       <c r="D94" s="3">
+        <v>42948</v>
+      </c>
+      <c r="E94" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" s="2">
         <v>13.4113</v>
       </c>
       <c r="D95" s="3">
+        <v>42949</v>
+      </c>
+      <c r="E95" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2">
         <v>13.5504</v>
       </c>
       <c r="D96" s="3">
+        <v>42950</v>
+      </c>
+      <c r="E96" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="2">
         <v>13.7154</v>
       </c>
       <c r="D97" s="3">
+        <v>42951</v>
+      </c>
+      <c r="E97" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" s="2">
         <v>13.8506</v>
       </c>
       <c r="D98" s="3">
+        <v>42952</v>
+      </c>
+      <c r="E98" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2">
         <v>13.9651</v>
       </c>
       <c r="D99" s="3">
+        <v>42953</v>
+      </c>
+      <c r="E99" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2">
         <v>14.304</v>
       </c>
       <c r="D100" s="3">
+        <v>42954</v>
+      </c>
+      <c r="E100" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" s="2">
         <v>15.7839</v>
       </c>
       <c r="D101" s="3">
+        <v>42955</v>
+      </c>
+      <c r="E101" s="3">
         <v>43165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D101">
-    <sortState ref="A1:D101">
+  <autoFilter ref="A1:E101">
+    <sortState ref="A1:E101">
       <sortCondition ref="C1"/>
     </sortState>
     <extLst/>
